--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打篮球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,6 +41,10 @@
   </si>
   <si>
     <t>唱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -418,21 +418,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
